--- a/커뮤니티 댓글 더미데이터.xlsx
+++ b/커뮤니티 댓글 더미데이터.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108E89E-6862-4C88-B4CB-4B9AE3B8B1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3691D64C-1D99-4429-9B50-63182833630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="1395" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
   <si>
     <t>COMMUNITY_COMMENT_NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,18 +393,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,10 +438,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -444,10 +455,10 @@
         <v>7</v>
       </c>
       <c r="F3" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -461,10 +472,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -478,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -495,10 +506,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -512,10 +523,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -529,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -546,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -563,10 +574,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -583,10 +594,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -603,10 +614,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -623,10 +634,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -643,10 +654,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -663,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="F15" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -683,10 +694,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -700,10 +711,10 @@
         <v>7</v>
       </c>
       <c r="F17" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -717,10 +728,10 @@
         <v>6</v>
       </c>
       <c r="F18" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -734,10 +745,10 @@
         <v>7</v>
       </c>
       <c r="F19" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -751,10 +762,10 @@
         <v>6</v>
       </c>
       <c r="F20" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -768,10 +779,10 @@
         <v>7</v>
       </c>
       <c r="F21" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -785,10 +796,10 @@
         <v>6</v>
       </c>
       <c r="F22" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -802,10 +813,10 @@
         <v>7</v>
       </c>
       <c r="F23" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -819,10 +830,10 @@
         <v>6</v>
       </c>
       <c r="F24" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -836,10 +847,10 @@
         <v>7</v>
       </c>
       <c r="F25" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -853,10 +864,10 @@
         <v>6</v>
       </c>
       <c r="F26" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -870,10 +881,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -887,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -904,10 +915,10 @@
         <v>7</v>
       </c>
       <c r="F29" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -921,10 +932,10 @@
         <v>6</v>
       </c>
       <c r="F30" s="1">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -939,6 +950,720 @@
       </c>
       <c r="F31" s="1">
         <v>45557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>263</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>263</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>263</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>263</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>263</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>263</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>263</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>263</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>263</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>263</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>263</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>263</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>263</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>263</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>263</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>263</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>263</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>263</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>263</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>263</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>263</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>263</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>263</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>263</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>263</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>263</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>263</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>263</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>263</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>263</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>263</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>263</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>263</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>263</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>263</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>263</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>263</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>263</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>263</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>263</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>263</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>263</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1">
+        <v>45558</v>
       </c>
     </row>
   </sheetData>

--- a/커뮤니티 댓글 더미데이터.xlsx
+++ b/커뮤니티 댓글 더미데이터.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3691D64C-1D99-4429-9B50-63182833630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E92E032-A359-4F16-99B9-E7D7971B93EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="1395" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,18 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="12">
   <si>
     <t>COMMUNITY_COMMENT_NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>COMMUNITY_PARENT_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>COMMUNITY_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MEMBER_NUMBER</t>
@@ -60,6 +58,18 @@
   <si>
     <t>COMMUNITY_COMMENT_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT_GROUP</t>
+  </si>
+  <si>
+    <t>COMMENT_DEPTH</t>
+  </si>
+  <si>
+    <t>COMMENT_ORDER</t>
+  </si>
+  <si>
+    <t>COMMENT_CHILD_COUNT</t>
   </si>
   <si>
     <t>퍼가요~~</t>
@@ -393,18 +403,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +437,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,13 +461,25 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>45528</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -452,13 +490,25 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>45529</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -469,13 +519,25 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>45530</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -486,13 +548,25 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>45531</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -503,13 +577,25 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>45532</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -520,13 +606,25 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>45533</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -537,13 +635,25 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>45534</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -554,13 +664,25 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1">
         <v>45535</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -571,13 +693,25 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
         <v>45536</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -591,13 +725,25 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>45537</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -611,13 +757,25 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
         <v>45538</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -631,13 +789,25 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1">
         <v>45539</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -651,13 +821,25 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <v>45540</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -671,13 +853,25 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1">
         <v>45541</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -691,13 +885,25 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
         <v>45542</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -708,13 +914,25 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1">
         <v>45543</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -725,13 +943,25 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1">
         <v>45544</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -742,13 +972,25 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1">
         <v>45545</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -759,13 +1001,25 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1">
         <v>45546</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -776,13 +1030,25 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1">
         <v>45547</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -793,13 +1059,25 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1">
         <v>45548</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -810,13 +1088,25 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1">
         <v>45549</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
@@ -827,13 +1117,25 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1">
         <v>45550</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -844,13 +1146,25 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1">
         <v>45551</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
@@ -861,13 +1175,25 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1">
         <v>45552</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
@@ -878,13 +1204,25 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1">
         <v>45553</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
@@ -895,13 +1233,25 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
         <v>45554</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
@@ -912,13 +1262,25 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1">
         <v>45555</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
@@ -929,13 +1291,25 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1">
         <v>45556</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
@@ -946,13 +1320,25 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1">
         <v>45557</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
@@ -963,13 +1349,25 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
@@ -980,13 +1378,25 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>33</v>
       </c>
@@ -997,13 +1407,25 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1014,13 +1436,25 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1031,13 +1465,25 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F36" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1048,13 +1494,25 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1065,13 +1523,25 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>9</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1082,13 +1552,25 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1099,13 +1581,25 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1116,13 +1610,25 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1133,13 +1639,25 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1150,13 +1668,25 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F43" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1167,13 +1697,25 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1184,13 +1726,25 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F45" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1201,13 +1755,25 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>17</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1218,13 +1784,25 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1235,13 +1813,25 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1252,13 +1842,25 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1269,13 +1871,25 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>21</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1286,13 +1900,25 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F51" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>22</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1303,13 +1929,25 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>23</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1320,13 +1958,25 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1337,13 +1987,25 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F54" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>25</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1354,13 +2016,25 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>26</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1371,13 +2045,25 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F56" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>27</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1388,13 +2074,25 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F57" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>28</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1405,13 +2103,25 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F58" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>29</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1422,13 +2132,25 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F59" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1439,13 +2161,25 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F60" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>31</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1456,13 +2190,25 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>32</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1473,13 +2219,25 @@
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F62" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>33</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1490,13 +2248,25 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F63" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>34</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1507,13 +2277,25 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>35</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1524,13 +2306,25 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F65" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>36</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1541,13 +2335,25 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>37</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1558,13 +2364,25 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>38</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1575,13 +2393,25 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>39</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1592,13 +2422,25 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1609,13 +2451,25 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F70" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>41</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1626,13 +2480,25 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <v>42</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1643,13 +2509,25 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F72" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>43</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1660,10 +2538,22 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1">
         <v>45558</v>
+      </c>
+      <c r="G73">
+        <v>44</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/커뮤니티 댓글 더미데이터.xlsx
+++ b/커뮤니티 댓글 더미데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E92E032-A359-4F16-99B9-E7D7971B93EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{161704A6-4C72-4ECC-AB28-E52505BACDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="1395" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="14">
   <si>
     <t>COMMUNITY_COMMENT_NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,8 +72,14 @@
     <t>COMMENT_CHILD_COUNT</t>
   </si>
   <si>
+    <t>COMMENT_STATUS</t>
+  </si>
+  <si>
     <t>퍼가요~~</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>좋은글 잘 보고 갑니다~~</t>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K2" sqref="K2:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -416,9 +422,10 @@
     <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +456,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>45528</v>
@@ -478,8 +488,11 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -490,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>45529</v>
@@ -507,8 +520,11 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -519,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>45530</v>
@@ -536,8 +552,11 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -548,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>45531</v>
@@ -565,8 +584,11 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -577,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>45532</v>
@@ -594,8 +616,11 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -606,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>45533</v>
@@ -623,8 +648,11 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -635,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>45534</v>
@@ -652,8 +680,11 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -664,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1">
         <v>45535</v>
@@ -681,8 +712,11 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -693,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
         <v>45536</v>
@@ -710,8 +744,11 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -725,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1">
         <v>45537</v>
@@ -742,8 +779,11 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -757,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1">
         <v>45538</v>
@@ -774,8 +814,11 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -789,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1">
         <v>45539</v>
@@ -806,8 +849,11 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -821,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1">
         <v>45540</v>
@@ -838,8 +884,11 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -853,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1">
         <v>45541</v>
@@ -870,8 +919,11 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -885,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1">
         <v>45542</v>
@@ -902,8 +954,11 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -914,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1">
         <v>45543</v>
@@ -931,8 +986,11 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -943,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1">
         <v>45544</v>
@@ -960,8 +1018,11 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -972,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1">
         <v>45545</v>
@@ -989,8 +1050,11 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1001,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1">
         <v>45546</v>
@@ -1018,8 +1082,11 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1030,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1">
         <v>45547</v>
@@ -1047,8 +1114,11 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1059,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1">
         <v>45548</v>
@@ -1076,8 +1146,11 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1088,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1">
         <v>45549</v>
@@ -1105,8 +1178,11 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1117,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1">
         <v>45550</v>
@@ -1134,8 +1210,11 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1146,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1">
         <v>45551</v>
@@ -1163,8 +1242,11 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1175,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1">
         <v>45552</v>
@@ -1192,8 +1274,11 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1204,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1">
         <v>45553</v>
@@ -1221,8 +1306,11 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1233,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1">
         <v>45554</v>
@@ -1250,8 +1338,11 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1262,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1">
         <v>45555</v>
@@ -1279,8 +1370,11 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1291,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1">
         <v>45556</v>
@@ -1308,8 +1402,11 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1320,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1">
         <v>45557</v>
@@ -1337,8 +1434,11 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1349,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1">
         <v>45558</v>
@@ -1366,8 +1466,11 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1378,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1">
         <v>45558</v>
@@ -1395,8 +1498,11 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1407,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1">
         <v>45558</v>
@@ -1424,8 +1530,11 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1436,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F35" s="1">
         <v>45558</v>
@@ -1453,8 +1562,11 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1465,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" s="1">
         <v>45558</v>
@@ -1482,8 +1594,11 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1494,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1">
         <v>45558</v>
@@ -1511,8 +1626,11 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1523,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" s="1">
         <v>45558</v>
@@ -1540,8 +1658,11 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1552,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F39" s="1">
         <v>45558</v>
@@ -1569,8 +1690,11 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1581,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1">
         <v>45558</v>
@@ -1598,8 +1722,11 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1610,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F41" s="1">
         <v>45558</v>
@@ -1627,8 +1754,11 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1639,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1">
         <v>45558</v>
@@ -1656,8 +1786,11 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1668,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1">
         <v>45558</v>
@@ -1685,8 +1818,11 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1697,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1">
         <v>45558</v>
@@ -1714,8 +1850,11 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1726,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1">
         <v>45558</v>
@@ -1743,8 +1882,11 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1755,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1">
         <v>45558</v>
@@ -1772,8 +1914,11 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1784,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1">
         <v>45558</v>
@@ -1801,8 +1946,11 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1813,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1">
         <v>45558</v>
@@ -1830,8 +1978,11 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1842,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1">
         <v>45558</v>
@@ -1859,8 +2010,11 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1871,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" s="1">
         <v>45558</v>
@@ -1888,8 +2042,11 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1900,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F51" s="1">
         <v>45558</v>
@@ -1917,8 +2074,11 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1929,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" s="1">
         <v>45558</v>
@@ -1946,8 +2106,11 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1958,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F53" s="1">
         <v>45558</v>
@@ -1975,8 +2138,11 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1987,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" s="1">
         <v>45558</v>
@@ -2004,8 +2170,11 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2016,7 +2185,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1">
         <v>45558</v>
@@ -2033,8 +2202,11 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2045,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1">
         <v>45558</v>
@@ -2062,8 +2234,11 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2074,7 +2249,7 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F57" s="1">
         <v>45558</v>
@@ -2091,8 +2266,11 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2103,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1">
         <v>45558</v>
@@ -2120,8 +2298,11 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2132,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1">
         <v>45558</v>
@@ -2149,8 +2330,11 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2161,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" s="1">
         <v>45558</v>
@@ -2178,8 +2362,11 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2190,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F61" s="1">
         <v>45558</v>
@@ -2207,8 +2394,11 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2219,7 +2409,7 @@
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1">
         <v>45558</v>
@@ -2236,8 +2426,11 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2248,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1">
         <v>45558</v>
@@ -2265,8 +2458,11 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2277,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1">
         <v>45558</v>
@@ -2294,8 +2490,11 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2306,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F65" s="1">
         <v>45558</v>
@@ -2323,8 +2522,11 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2335,7 +2537,7 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1">
         <v>45558</v>
@@ -2352,8 +2554,11 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2364,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F67" s="1">
         <v>45558</v>
@@ -2381,8 +2586,11 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2393,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1">
         <v>45558</v>
@@ -2410,8 +2618,11 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2422,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F69" s="1">
         <v>45558</v>
@@ -2439,8 +2650,11 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2451,7 +2665,7 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1">
         <v>45558</v>
@@ -2468,8 +2682,11 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2480,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F71" s="1">
         <v>45558</v>
@@ -2497,8 +2714,11 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2509,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" s="1">
         <v>45558</v>
@@ -2526,8 +2746,11 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2538,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1">
         <v>45558</v>
@@ -2554,6 +2777,9 @@
       </c>
       <c r="J73">
         <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/커뮤니티 댓글 더미데이터.xlsx
+++ b/커뮤니티 댓글 더미데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{161704A6-4C72-4ECC-AB28-E52505BACDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{265CBD60-E705-499D-90D5-72F2E1E889B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="1395" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,9 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -412,7 +419,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K73"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -732,17 +739,17 @@
       <c r="F10" s="1">
         <v>45536</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -767,16 +774,16 @@
       <c r="F11" s="1">
         <v>45537</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" t="s">
@@ -802,17 +809,17 @@
       <c r="F12" s="1">
         <v>45538</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -837,16 +844,16 @@
       <c r="F13" s="1">
         <v>45539</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" t="s">
@@ -872,17 +879,17 @@
       <c r="F14" s="1">
         <v>45540</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
@@ -907,16 +914,16 @@
       <c r="F15" s="1">
         <v>45541</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" t="s">
@@ -942,16 +949,16 @@
       <c r="F16" s="1">
         <v>45542</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" t="s">
